--- a/public/download/import tim cutting template.xlsx
+++ b/public/download/import tim cutting template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linggapangestu/Documents/import test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC10631-672B-D840-ADA3-56974D9D370B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404406CE-4553-3345-B5F8-214B66CE6A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="2000" windowWidth="26720" windowHeight="16940" xr2:uid="{C1FDDC09-8750-1046-AFF9-0D2287C26BEE}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Tim Gelar</t>
-  </si>
-  <si>
     <t>NANA</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>HENDRI</t>
+  </si>
+  <si>
+    <t>Tim Cutting</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -490,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -498,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -514,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -522,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -538,7 +538,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -554,7 +554,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -562,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -570,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -578,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -586,7 +586,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
